--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98C168-8839-4733-95D5-74D730174335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF683C-E139-4763-B442-3867A1BC9F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF683C-E139-4763-B442-3867A1BC9F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB15A547-416C-4110-9A57-64140EF28D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB15A547-416C-4110-9A57-64140EF28D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF973481-20BD-4855-BEA5-98EC66A6DBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF973481-20BD-4855-BEA5-98EC66A6DBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A253E-3E6D-4784-A05A-450878E18A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A253E-3E6D-4784-A05A-450878E18A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F68A0-E1F0-4C7C-A873-D1E090F76ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F68A0-E1F0-4C7C-A873-D1E090F76ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE571608-CA35-41EE-9E54-30F4809DE137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE571608-CA35-41EE-9E54-30F4809DE137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962DF39-4FDE-4219-A641-3EDB2A2E8744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962DF39-4FDE-4219-A641-3EDB2A2E8744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450C356F-FE6D-40DF-BD8F-649192EEE646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
